--- a/source code/bin/Debug/receipt.xlsx
+++ b/source code/bin/Debug/receipt.xlsx
@@ -68,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,12 +77,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,52 +184,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,7 +537,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -522,129 +548,142 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:6" ht="19.5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="4" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="18" t="s">
         <v>10</v>
       </c>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="18" t="s">
         <v>11</v>
       </c>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="18" t="s">
         <v>13</v>
       </c>
+      <c r="F16" s="15"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
